--- a/files/polls/CHL_2020-2.xlsx
+++ b/files/polls/CHL_2020-2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="48">
   <si>
     <t>Fecha</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>30/05/2020</t>
+  </si>
+  <si>
+    <t>11/07/2020</t>
   </si>
   <si>
     <t>13/06/2020</t>
@@ -199,7 +202,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E55"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -207,16 +210,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -224,7 +227,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1">
         <v>704</v>
@@ -241,7 +244,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1">
         <v>2000</v>
@@ -258,7 +261,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1">
         <v>706</v>
@@ -275,7 +278,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1">
         <v>1159</v>
@@ -292,7 +295,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1">
         <v>1014</v>
@@ -309,7 +312,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1">
         <v>598</v>
@@ -326,7 +329,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1">
         <v>1215</v>
@@ -343,7 +346,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1">
         <v>1030</v>
@@ -360,7 +363,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1">
         <v>500</v>
@@ -377,7 +380,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1">
         <v>709</v>
@@ -394,7 +397,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1">
         <v>1496</v>
@@ -411,7 +414,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1">
         <v>707</v>
@@ -428,7 +431,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1">
         <v>1000</v>
@@ -445,7 +448,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1">
         <v>780</v>
@@ -462,7 +465,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1">
         <v>950</v>
@@ -479,7 +482,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1">
         <v>487</v>
@@ -496,7 +499,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1">
         <v>1033</v>
@@ -513,7 +516,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1">
         <v>709</v>
@@ -530,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1">
         <v>806</v>
@@ -547,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1">
         <v>975</v>
@@ -564,7 +567,7 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1">
         <v>477</v>
@@ -581,7 +584,7 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="1">
         <v>708</v>
@@ -598,7 +601,7 @@
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" s="1">
         <v>709</v>
@@ -615,7 +618,7 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="1">
         <v>1045</v>
@@ -632,7 +635,7 @@
         <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="1">
         <v>525</v>
@@ -649,7 +652,7 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" s="1">
         <v>705</v>
@@ -666,7 +669,7 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1">
         <v>1445</v>
@@ -683,7 +686,7 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" s="1">
         <v>705</v>
@@ -700,7 +703,7 @@
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" s="1">
         <v>1043</v>
@@ -717,7 +720,7 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C31" s="1">
         <v>583</v>
@@ -734,7 +737,7 @@
         <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" s="1">
         <v>702</v>
@@ -751,7 +754,7 @@
         <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33" s="1">
         <v>707</v>
@@ -768,7 +771,7 @@
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34" s="1">
         <v>1135</v>
@@ -785,7 +788,7 @@
         <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35" s="1">
         <v>690</v>
@@ -802,7 +805,7 @@
         <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" s="1">
         <v>702</v>
@@ -819,7 +822,7 @@
         <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C37" s="1">
         <v>1273</v>
@@ -836,7 +839,7 @@
         <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" s="1">
         <v>702</v>
@@ -853,7 +856,7 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C39" s="1">
         <v>1230</v>
@@ -870,7 +873,7 @@
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C40" s="1">
         <v>690</v>
@@ -887,7 +890,7 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C41" s="1">
         <v>1270</v>
@@ -904,7 +907,7 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C42" s="1">
         <v>725</v>
@@ -921,7 +924,7 @@
         <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C43" s="1">
         <v>1227</v>
@@ -938,7 +941,7 @@
         <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C44" s="1">
         <v>736</v>
@@ -955,7 +958,7 @@
         <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C45" s="1">
         <v>712</v>
@@ -972,7 +975,7 @@
         <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C46" s="1">
         <v>1209</v>
@@ -989,7 +992,7 @@
         <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C47" s="1">
         <v>724</v>
@@ -1006,7 +1009,7 @@
         <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C48" s="1">
         <v>1215</v>
@@ -1023,7 +1026,7 @@
         <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C49" s="1">
         <v>661</v>
@@ -1040,16 +1043,16 @@
         <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C50" s="1">
-        <v>1730</v>
+        <v>1340</v>
       </c>
       <c r="D50" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E50" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
@@ -1057,16 +1060,16 @@
         <v>34</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C51" s="1">
-        <v>960</v>
+        <v>747</v>
       </c>
       <c r="D51" s="1">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E51" s="1">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52">
@@ -1074,16 +1077,16 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C52" s="1">
-        <v>1260</v>
+        <v>1730</v>
       </c>
       <c r="D52" s="1">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E52" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53">
@@ -1091,15 +1094,49 @@
         <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C53" s="1">
+        <v>960</v>
+      </c>
+      <c r="D53" s="1">
+        <v>63</v>
+      </c>
+      <c r="E53" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1260</v>
+      </c>
+      <c r="D54" s="1">
+        <v>47</v>
+      </c>
+      <c r="E54" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="1">
         <v>670</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D55" s="1">
         <v>67</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E55" s="1">
         <v>32</v>
       </c>
     </row>

--- a/files/polls/CHL_2020-2.xlsx
+++ b/files/polls/CHL_2020-2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="49">
   <si>
     <t>Fecha</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>28/06/2020</t>
+  </si>
+  <si>
+    <t>01/08/2020</t>
   </si>
   <si>
     <t>Encuesta</t>
@@ -202,7 +205,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E59"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -210,16 +213,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -227,7 +230,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1">
         <v>704</v>
@@ -244,7 +247,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1">
         <v>2000</v>
@@ -261,7 +264,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1">
         <v>706</v>
@@ -278,7 +281,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1">
         <v>1159</v>
@@ -295,7 +298,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1">
         <v>1014</v>
@@ -312,7 +315,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1">
         <v>598</v>
@@ -329,7 +332,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1">
         <v>1215</v>
@@ -346,7 +349,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1">
         <v>1030</v>
@@ -363,7 +366,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1">
         <v>500</v>
@@ -380,7 +383,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1">
         <v>709</v>
@@ -397,7 +400,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1">
         <v>1496</v>
@@ -414,7 +417,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1">
         <v>707</v>
@@ -431,7 +434,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1">
         <v>1000</v>
@@ -448,7 +451,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1">
         <v>780</v>
@@ -465,7 +468,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1">
         <v>950</v>
@@ -482,7 +485,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1">
         <v>487</v>
@@ -499,7 +502,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1">
         <v>1033</v>
@@ -516,7 +519,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1">
         <v>709</v>
@@ -533,7 +536,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1">
         <v>806</v>
@@ -550,7 +553,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" s="1">
         <v>975</v>
@@ -567,7 +570,7 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1">
         <v>477</v>
@@ -584,7 +587,7 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="1">
         <v>708</v>
@@ -601,7 +604,7 @@
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="1">
         <v>709</v>
@@ -618,7 +621,7 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="1">
         <v>1045</v>
@@ -635,7 +638,7 @@
         <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" s="1">
         <v>525</v>
@@ -652,7 +655,7 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27" s="1">
         <v>705</v>
@@ -669,7 +672,7 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" s="1">
         <v>1445</v>
@@ -686,7 +689,7 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" s="1">
         <v>705</v>
@@ -703,7 +706,7 @@
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" s="1">
         <v>1043</v>
@@ -720,7 +723,7 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="1">
         <v>583</v>
@@ -737,7 +740,7 @@
         <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="1">
         <v>702</v>
@@ -754,7 +757,7 @@
         <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C33" s="1">
         <v>707</v>
@@ -771,7 +774,7 @@
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C34" s="1">
         <v>1135</v>
@@ -788,7 +791,7 @@
         <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C35" s="1">
         <v>690</v>
@@ -805,7 +808,7 @@
         <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" s="1">
         <v>702</v>
@@ -822,7 +825,7 @@
         <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C37" s="1">
         <v>1273</v>
@@ -839,7 +842,7 @@
         <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C38" s="1">
         <v>702</v>
@@ -856,7 +859,7 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C39" s="1">
         <v>1230</v>
@@ -873,7 +876,7 @@
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C40" s="1">
         <v>690</v>
@@ -890,7 +893,7 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C41" s="1">
         <v>1270</v>
@@ -907,7 +910,7 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C42" s="1">
         <v>725</v>
@@ -924,7 +927,7 @@
         <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C43" s="1">
         <v>1227</v>
@@ -941,7 +944,7 @@
         <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C44" s="1">
         <v>736</v>
@@ -958,7 +961,7 @@
         <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C45" s="1">
         <v>712</v>
@@ -975,7 +978,7 @@
         <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C46" s="1">
         <v>1209</v>
@@ -992,7 +995,7 @@
         <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C47" s="1">
         <v>724</v>
@@ -1009,7 +1012,7 @@
         <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C48" s="1">
         <v>1215</v>
@@ -1026,7 +1029,7 @@
         <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C49" s="1">
         <v>661</v>
@@ -1043,7 +1046,7 @@
         <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C50" s="1">
         <v>1340</v>
@@ -1060,7 +1063,7 @@
         <v>34</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C51" s="1">
         <v>747</v>
@@ -1077,7 +1080,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C52" s="1">
         <v>1730</v>
@@ -1094,7 +1097,7 @@
         <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C53" s="1">
         <v>960</v>
@@ -1111,7 +1114,7 @@
         <v>36</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C54" s="1">
         <v>1260</v>
@@ -1128,7 +1131,7 @@
         <v>36</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C55" s="1">
         <v>670</v>
@@ -1138,6 +1141,74 @@
       </c>
       <c r="E55" s="1">
         <v>32</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1340</v>
+      </c>
+      <c r="D56" s="1">
+        <v>48</v>
+      </c>
+      <c r="E56" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="1">
+        <v>747</v>
+      </c>
+      <c r="D57" s="1">
+        <v>66</v>
+      </c>
+      <c r="E57" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1430</v>
+      </c>
+      <c r="D58" s="1">
+        <v>49</v>
+      </c>
+      <c r="E58" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="1">
+        <v>797</v>
+      </c>
+      <c r="D59" s="1">
+        <v>63</v>
+      </c>
+      <c r="E59" s="1">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/files/polls/CHL_2020-2.xlsx
+++ b/files/polls/CHL_2020-2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
   <si>
     <t>Fecha</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>01/08/2020</t>
+  </si>
+  <si>
+    <t>15/08/2020</t>
   </si>
   <si>
     <t>Encuesta</t>
@@ -205,7 +208,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E42"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -213,16 +216,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -230,7 +233,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1">
         <v>704</v>
@@ -247,7 +250,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1">
         <v>2000</v>
@@ -264,7 +267,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1">
         <v>706</v>
@@ -281,7 +284,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1">
         <v>1159</v>
@@ -298,7 +301,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1">
         <v>1014</v>
@@ -312,84 +315,84 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1">
-        <v>598</v>
+        <v>1215</v>
       </c>
       <c r="D7" s="1">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E7" s="1">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1">
-        <v>1215</v>
+        <v>1030</v>
       </c>
       <c r="D8" s="1">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E8" s="1">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>40</v>
       </c>
       <c r="C9" s="1">
-        <v>1030</v>
+        <v>709</v>
       </c>
       <c r="D9" s="1">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E9" s="1">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1">
-        <v>500</v>
+        <v>1496</v>
       </c>
       <c r="D10" s="1">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E10" s="1">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D11" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E11" s="1">
         <v>43</v>
@@ -397,200 +400,200 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1">
-        <v>1496</v>
+        <v>1000</v>
       </c>
       <c r="D12" s="1">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1">
-        <v>707</v>
+        <v>950</v>
       </c>
       <c r="D13" s="1">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E13" s="1">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1">
-        <v>1000</v>
+        <v>1033</v>
       </c>
       <c r="D14" s="1">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E14" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1">
-        <v>780</v>
+        <v>709</v>
       </c>
       <c r="D15" s="1">
         <v>47</v>
       </c>
       <c r="E15" s="1">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1">
-        <v>950</v>
+        <v>806</v>
       </c>
       <c r="D16" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="1">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="1">
-        <v>487</v>
+        <v>975</v>
       </c>
       <c r="D17" s="1">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E17" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1">
-        <v>1033</v>
+        <v>708</v>
       </c>
       <c r="D18" s="1">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E18" s="1">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1">
         <v>709</v>
       </c>
       <c r="D19" s="1">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E19" s="1">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="1">
-        <v>806</v>
+        <v>1045</v>
       </c>
       <c r="D20" s="1">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E20" s="1">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="1">
-        <v>975</v>
+        <v>705</v>
       </c>
       <c r="D21" s="1">
         <v>50</v>
       </c>
       <c r="E21" s="1">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1">
-        <v>477</v>
+        <v>1445</v>
       </c>
       <c r="D22" s="1">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E22" s="1">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D23" s="1">
         <v>50</v>
@@ -601,203 +604,203 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" s="1">
-        <v>709</v>
+        <v>1043</v>
       </c>
       <c r="D24" s="1">
         <v>51</v>
       </c>
       <c r="E24" s="1">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="1">
-        <v>1045</v>
+        <v>702</v>
       </c>
       <c r="D25" s="1">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E25" s="1">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="1">
-        <v>525</v>
+        <v>707</v>
       </c>
       <c r="D26" s="1">
         <v>58</v>
       </c>
       <c r="E26" s="1">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C27" s="1">
-        <v>705</v>
+        <v>1135</v>
       </c>
       <c r="D27" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E27" s="1">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C28" s="1">
-        <v>1445</v>
+        <v>702</v>
       </c>
       <c r="D28" s="1">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E28" s="1">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C29" s="1">
-        <v>705</v>
+        <v>1273</v>
       </c>
       <c r="D29" s="1">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E29" s="1">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
         <v>40</v>
       </c>
       <c r="C30" s="1">
-        <v>1043</v>
+        <v>702</v>
       </c>
       <c r="D30" s="1">
         <v>51</v>
       </c>
       <c r="E30" s="1">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" s="1">
-        <v>583</v>
+        <v>1230</v>
       </c>
       <c r="D31" s="1">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E31" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C32" s="1">
-        <v>702</v>
+        <v>1270</v>
       </c>
       <c r="D32" s="1">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E32" s="1">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C33" s="1">
-        <v>707</v>
+        <v>1227</v>
       </c>
       <c r="D33" s="1">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E33" s="1">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="1">
-        <v>1135</v>
+        <v>712</v>
       </c>
       <c r="D34" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E34" s="1">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C35" s="1">
-        <v>690</v>
+        <v>1209</v>
       </c>
       <c r="D35" s="1">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E35" s="1">
         <v>27</v>
@@ -805,67 +808,67 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C36" s="1">
-        <v>702</v>
+        <v>1215</v>
       </c>
       <c r="D36" s="1">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E36" s="1">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C37" s="1">
-        <v>1273</v>
+        <v>1340</v>
       </c>
       <c r="D37" s="1">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E37" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C38" s="1">
-        <v>702</v>
+        <v>1730</v>
       </c>
       <c r="D38" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E38" s="1">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39" s="1">
-        <v>1230</v>
+        <v>1260</v>
       </c>
       <c r="D39" s="1">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E39" s="1">
         <v>27</v>
@@ -873,342 +876,53 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C40" s="1">
-        <v>690</v>
+        <v>1340</v>
       </c>
       <c r="D40" s="1">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E40" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C41" s="1">
-        <v>1270</v>
+        <v>1430</v>
       </c>
       <c r="D41" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E41" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C42" s="1">
-        <v>725</v>
+        <v>1434</v>
       </c>
       <c r="D42" s="1">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E42" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1227</v>
-      </c>
-      <c r="D43" s="1">
-        <v>53</v>
-      </c>
-      <c r="E43" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="1">
-        <v>736</v>
-      </c>
-      <c r="D44" s="1">
-        <v>69</v>
-      </c>
-      <c r="E44" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="1">
-        <v>712</v>
-      </c>
-      <c r="D45" s="1">
-        <v>50</v>
-      </c>
-      <c r="E45" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1209</v>
-      </c>
-      <c r="D46" s="1">
-        <v>51</v>
-      </c>
-      <c r="E46" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>32</v>
-      </c>
-      <c r="B47" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" s="1">
-        <v>724</v>
-      </c>
-      <c r="D47" s="1">
-        <v>67</v>
-      </c>
-      <c r="E47" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>33</v>
-      </c>
-      <c r="B48" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1215</v>
-      </c>
-      <c r="D48" s="1">
-        <v>45</v>
-      </c>
-      <c r="E48" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>33</v>
-      </c>
-      <c r="B49" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" s="1">
-        <v>661</v>
-      </c>
-      <c r="D49" s="1">
-        <v>62</v>
-      </c>
-      <c r="E49" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="1">
-        <v>1340</v>
-      </c>
-      <c r="D50" s="1">
-        <v>49</v>
-      </c>
-      <c r="E50" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" t="s">
-        <v>40</v>
-      </c>
-      <c r="C51" s="1">
-        <v>747</v>
-      </c>
-      <c r="D51" s="1">
-        <v>66</v>
-      </c>
-      <c r="E51" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>35</v>
-      </c>
-      <c r="B52" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" s="1">
-        <v>1730</v>
-      </c>
-      <c r="D52" s="1">
-        <v>50</v>
-      </c>
-      <c r="E52" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>35</v>
-      </c>
-      <c r="B53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C53" s="1">
-        <v>960</v>
-      </c>
-      <c r="D53" s="1">
-        <v>63</v>
-      </c>
-      <c r="E53" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" t="s">
-        <v>40</v>
-      </c>
-      <c r="C54" s="1">
-        <v>1260</v>
-      </c>
-      <c r="D54" s="1">
-        <v>47</v>
-      </c>
-      <c r="E54" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>36</v>
-      </c>
-      <c r="B55" t="s">
-        <v>40</v>
-      </c>
-      <c r="C55" s="1">
-        <v>670</v>
-      </c>
-      <c r="D55" s="1">
-        <v>67</v>
-      </c>
-      <c r="E55" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" s="1">
-        <v>1340</v>
-      </c>
-      <c r="D56" s="1">
-        <v>48</v>
-      </c>
-      <c r="E56" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>34</v>
-      </c>
-      <c r="B57" t="s">
-        <v>40</v>
-      </c>
-      <c r="C57" s="1">
-        <v>747</v>
-      </c>
-      <c r="D57" s="1">
-        <v>66</v>
-      </c>
-      <c r="E57" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>37</v>
-      </c>
-      <c r="B58" t="s">
-        <v>40</v>
-      </c>
-      <c r="C58" s="1">
-        <v>1430</v>
-      </c>
-      <c r="D58" s="1">
-        <v>49</v>
-      </c>
-      <c r="E58" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>37</v>
-      </c>
-      <c r="B59" t="s">
-        <v>40</v>
-      </c>
-      <c r="C59" s="1">
-        <v>797</v>
-      </c>
-      <c r="D59" s="1">
-        <v>63</v>
-      </c>
-      <c r="E59" s="1">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/files/polls/CHL_2020-2.xlsx
+++ b/files/polls/CHL_2020-2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
   <si>
     <t>Fecha</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Prob</t>
   </si>
   <si>
     <t>Constituyente</t>
@@ -208,7 +211,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:F42"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -227,6 +230,9 @@
       <c r="E1" t="s">
         <v>49</v>
       </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -239,9 +245,12 @@
         <v>704</v>
       </c>
       <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
         <v>60</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>35</v>
       </c>
     </row>
@@ -256,9 +265,12 @@
         <v>2000</v>
       </c>
       <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
         <v>64</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>24</v>
       </c>
     </row>
@@ -273,9 +285,12 @@
         <v>706</v>
       </c>
       <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
         <v>62</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>33</v>
       </c>
     </row>
@@ -290,9 +305,12 @@
         <v>1159</v>
       </c>
       <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
         <v>47</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>27</v>
       </c>
     </row>
@@ -307,9 +325,12 @@
         <v>1014</v>
       </c>
       <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
         <v>51</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>32</v>
       </c>
     </row>
@@ -324,9 +345,12 @@
         <v>1215</v>
       </c>
       <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
         <v>51</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>39</v>
       </c>
     </row>
@@ -341,9 +365,12 @@
         <v>1030</v>
       </c>
       <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
         <v>54</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>24</v>
       </c>
     </row>
@@ -358,9 +385,12 @@
         <v>709</v>
       </c>
       <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
         <v>51</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>43</v>
       </c>
     </row>
@@ -375,9 +405,12 @@
         <v>1496</v>
       </c>
       <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
         <v>44</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>37</v>
       </c>
     </row>
@@ -392,9 +425,12 @@
         <v>707</v>
       </c>
       <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
         <v>52</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>43</v>
       </c>
     </row>
@@ -409,9 +445,12 @@
         <v>1000</v>
       </c>
       <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
         <v>42</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>32</v>
       </c>
     </row>
@@ -426,9 +465,12 @@
         <v>950</v>
       </c>
       <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
         <v>57</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>24</v>
       </c>
     </row>
@@ -443,9 +485,12 @@
         <v>1033</v>
       </c>
       <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
         <v>54</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>29</v>
       </c>
     </row>
@@ -460,9 +505,12 @@
         <v>709</v>
       </c>
       <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
         <v>47</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>45</v>
       </c>
     </row>
@@ -477,9 +525,12 @@
         <v>806</v>
       </c>
       <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
         <v>56</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>35</v>
       </c>
     </row>
@@ -494,9 +545,12 @@
         <v>975</v>
       </c>
       <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
         <v>50</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>24</v>
       </c>
     </row>
@@ -511,9 +565,12 @@
         <v>708</v>
       </c>
       <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
         <v>50</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>42</v>
       </c>
     </row>
@@ -528,9 +585,12 @@
         <v>709</v>
       </c>
       <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
         <v>51</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>42</v>
       </c>
     </row>
@@ -545,9 +605,12 @@
         <v>1045</v>
       </c>
       <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
         <v>44</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>27</v>
       </c>
     </row>
@@ -562,9 +625,12 @@
         <v>705</v>
       </c>
       <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
         <v>50</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>41</v>
       </c>
     </row>
@@ -579,9 +645,12 @@
         <v>1445</v>
       </c>
       <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
         <v>58</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>27</v>
       </c>
     </row>
@@ -596,9 +665,12 @@
         <v>705</v>
       </c>
       <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
         <v>50</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>42</v>
       </c>
     </row>
@@ -613,9 +685,12 @@
         <v>1043</v>
       </c>
       <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
         <v>51</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>24</v>
       </c>
     </row>
@@ -630,9 +705,12 @@
         <v>702</v>
       </c>
       <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
         <v>53</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>36</v>
       </c>
     </row>
@@ -647,9 +725,12 @@
         <v>707</v>
       </c>
       <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
         <v>58</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>33</v>
       </c>
     </row>
@@ -664,9 +745,12 @@
         <v>1135</v>
       </c>
       <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
         <v>51</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>23</v>
       </c>
     </row>
@@ -681,9 +765,12 @@
         <v>702</v>
       </c>
       <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
         <v>52</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="1">
         <v>38</v>
       </c>
     </row>
@@ -698,9 +785,12 @@
         <v>1273</v>
       </c>
       <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
         <v>65</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
         <v>24</v>
       </c>
     </row>
@@ -715,9 +805,12 @@
         <v>702</v>
       </c>
       <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
         <v>51</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>39</v>
       </c>
     </row>
@@ -732,9 +825,12 @@
         <v>1230</v>
       </c>
       <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
         <v>55</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
         <v>27</v>
       </c>
     </row>
@@ -749,9 +845,12 @@
         <v>1270</v>
       </c>
       <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
         <v>47</v>
       </c>
-      <c r="E32" s="1">
+      <c r="F32" s="1">
         <v>30</v>
       </c>
     </row>
@@ -766,9 +865,12 @@
         <v>1227</v>
       </c>
       <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
         <v>53</v>
       </c>
-      <c r="E33" s="1">
+      <c r="F33" s="1">
         <v>24</v>
       </c>
     </row>
@@ -783,9 +885,12 @@
         <v>712</v>
       </c>
       <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
         <v>50</v>
       </c>
-      <c r="E34" s="1">
+      <c r="F34" s="1">
         <v>42</v>
       </c>
     </row>
@@ -800,9 +905,12 @@
         <v>1209</v>
       </c>
       <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
         <v>51</v>
       </c>
-      <c r="E35" s="1">
+      <c r="F35" s="1">
         <v>27</v>
       </c>
     </row>
@@ -817,9 +925,12 @@
         <v>1215</v>
       </c>
       <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
         <v>45</v>
       </c>
-      <c r="E36" s="1">
+      <c r="F36" s="1">
         <v>31</v>
       </c>
     </row>
@@ -834,9 +945,12 @@
         <v>1340</v>
       </c>
       <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
         <v>49</v>
       </c>
-      <c r="E37" s="1">
+      <c r="F37" s="1">
         <v>27</v>
       </c>
     </row>
@@ -851,9 +965,12 @@
         <v>1730</v>
       </c>
       <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
         <v>50</v>
       </c>
-      <c r="E38" s="1">
+      <c r="F38" s="1">
         <v>28</v>
       </c>
     </row>
@@ -868,9 +985,12 @@
         <v>1260</v>
       </c>
       <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
         <v>47</v>
       </c>
-      <c r="E39" s="1">
+      <c r="F39" s="1">
         <v>27</v>
       </c>
     </row>
@@ -885,9 +1005,12 @@
         <v>1340</v>
       </c>
       <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
         <v>48</v>
       </c>
-      <c r="E40" s="1">
+      <c r="F40" s="1">
         <v>27</v>
       </c>
     </row>
@@ -902,9 +1025,12 @@
         <v>1430</v>
       </c>
       <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
         <v>49</v>
       </c>
-      <c r="E41" s="1">
+      <c r="F41" s="1">
         <v>32</v>
       </c>
     </row>
@@ -919,9 +1045,12 @@
         <v>1434</v>
       </c>
       <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
         <v>49</v>
       </c>
-      <c r="E42" s="1">
+      <c r="F42" s="1">
         <v>26</v>
       </c>
     </row>

--- a/files/polls/CHL_2020-2.xlsx
+++ b/files/polls/CHL_2020-2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="52">
   <si>
     <t>Fecha</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>15/08/2020</t>
+  </si>
+  <si>
+    <t>24/08/2020</t>
   </si>
   <si>
     <t>Encuesta</t>
@@ -211,7 +214,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F62"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -219,19 +222,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2">
@@ -239,7 +242,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1">
         <v>704</v>
@@ -259,7 +262,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1">
         <v>2000</v>
@@ -279,7 +282,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1">
         <v>706</v>
@@ -299,7 +302,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1">
         <v>1159</v>
@@ -319,7 +322,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1">
         <v>1014</v>
@@ -336,99 +339,99 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1">
-        <v>1215</v>
+        <v>598</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F7" s="1">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1">
-        <v>1030</v>
+        <v>1215</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F8" s="1">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1">
-        <v>709</v>
+        <v>1030</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F9" s="1">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1">
-        <v>1496</v>
+        <v>500</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F10" s="1">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="1">
         <v>43</v>
@@ -436,150 +439,150 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="1">
-        <v>1000</v>
+        <v>1496</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F12" s="1">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="1">
-        <v>950</v>
+        <v>707</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F13" s="1">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="1">
-        <v>1033</v>
+        <v>1000</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F14" s="1">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1">
-        <v>709</v>
+        <v>780</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
         <v>47</v>
       </c>
       <c r="F15" s="1">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="1">
-        <v>806</v>
+        <v>950</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F16" s="1">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1">
-        <v>975</v>
+        <v>487</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="F17" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1">
-        <v>708</v>
+        <v>1033</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F18" s="1">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1">
         <v>709</v>
@@ -588,41 +591,41 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F19" s="1">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1">
-        <v>1045</v>
+        <v>806</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F20" s="1">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1">
-        <v>705</v>
+        <v>975</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -631,38 +634,38 @@
         <v>50</v>
       </c>
       <c r="F21" s="1">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C22" s="1">
-        <v>1445</v>
+        <v>477</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F22" s="1">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -676,13 +679,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="1">
-        <v>1043</v>
+        <v>709</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -691,118 +694,118 @@
         <v>51</v>
       </c>
       <c r="F24" s="1">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C25" s="1">
-        <v>702</v>
+        <v>1045</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F25" s="1">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C26" s="1">
-        <v>707</v>
+        <v>525</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1">
         <v>58</v>
       </c>
       <c r="F26" s="1">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="1">
-        <v>1135</v>
+        <v>705</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F27" s="1">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C28" s="1">
-        <v>702</v>
+        <v>1445</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F28" s="1">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C29" s="1">
-        <v>1273</v>
+        <v>705</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F29" s="1">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C30" s="1">
-        <v>702</v>
+        <v>1043</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -811,104 +814,104 @@
         <v>51</v>
       </c>
       <c r="F30" s="1">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31" s="1">
-        <v>1230</v>
+        <v>583</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F31" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
         <v>41</v>
       </c>
       <c r="C32" s="1">
-        <v>1270</v>
+        <v>702</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F32" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="1">
-        <v>1227</v>
+        <v>707</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F33" s="1">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C34" s="1">
-        <v>712</v>
+        <v>1135</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F34" s="1">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C35" s="1">
-        <v>1209</v>
+        <v>690</v>
       </c>
       <c r="D35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F35" s="1">
         <v>27</v>
@@ -916,79 +919,79 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="1">
-        <v>1215</v>
+        <v>702</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F36" s="1">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C37" s="1">
-        <v>1340</v>
+        <v>1273</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="F37" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="1">
-        <v>1730</v>
+        <v>702</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F38" s="1">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39" s="1">
-        <v>1260</v>
+        <v>1230</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F39" s="1">
         <v>27</v>
@@ -996,61 +999,461 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40" s="1">
-        <v>1340</v>
+        <v>690</v>
       </c>
       <c r="D40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="1">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="F40" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C41" s="1">
-        <v>1430</v>
+        <v>1270</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F41" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="1">
+        <v>725</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1">
+        <v>62</v>
+      </c>
+      <c r="F42" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1227</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>53</v>
+      </c>
+      <c r="F43" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="1">
+        <v>736</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1">
+        <v>69</v>
+      </c>
+      <c r="F44" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="1">
+        <v>712</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>50</v>
+      </c>
+      <c r="F45" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1209</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>51</v>
+      </c>
+      <c r="F46" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="1">
+        <v>724</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1">
+        <v>67</v>
+      </c>
+      <c r="F47" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1215</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>45</v>
+      </c>
+      <c r="F48" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="1">
+        <v>661</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1">
+        <v>62</v>
+      </c>
+      <c r="F49" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1340</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>49</v>
+      </c>
+      <c r="F50" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="1">
+        <v>747</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1">
+        <v>66</v>
+      </c>
+      <c r="F51" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1730</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>50</v>
+      </c>
+      <c r="F52" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="1">
+        <v>960</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1">
+        <v>63</v>
+      </c>
+      <c r="F53" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1260</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>47</v>
+      </c>
+      <c r="F54" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" s="1">
+        <v>670</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1">
+        <v>67</v>
+      </c>
+      <c r="F55" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1340</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>48</v>
+      </c>
+      <c r="F56" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" s="1">
+        <v>747</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1">
+        <v>66</v>
+      </c>
+      <c r="F57" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1430</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>49</v>
+      </c>
+      <c r="F58" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" s="1">
+        <v>797</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1">
+        <v>63</v>
+      </c>
+      <c r="F59" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
         <v>38</v>
       </c>
-      <c r="B42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="1">
+      <c r="B60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" s="1">
         <v>1434</v>
       </c>
-      <c r="D42" s="1">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1">
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
         <v>49</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F60" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1434</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1">
+        <v>65</v>
+      </c>
+      <c r="F61" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1940</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1">
+        <v>55</v>
+      </c>
+      <c r="F62" s="1">
         <v>26</v>
       </c>
     </row>

--- a/files/polls/CHL_2020-2.xlsx
+++ b/files/polls/CHL_2020-2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="64">
   <si>
     <t>Fecha</t>
   </si>
@@ -169,6 +169,42 @@
   </si>
   <si>
     <t>Mixta</t>
+  </si>
+  <si>
+    <t>pregunta</t>
+  </si>
+  <si>
+    <t>Ahora, Ud. preferiría que la Constitución sea cambiada</t>
+  </si>
+  <si>
+    <t>¿Usted votará una Convención Mixta Constitucional o una Convención Constitucional?</t>
+  </si>
+  <si>
+    <t>Ahora, Ud. preferiría que la Constitución sea cambiada…</t>
+  </si>
+  <si>
+    <t>¿Usted votará una Convención Mixta Constitucional o una Convención Constitucional? (votante probable)</t>
+  </si>
+  <si>
+    <t>¿Qué tipo de órgano debería redactar la nueva Constitución? ¿Qué votará?</t>
+  </si>
+  <si>
+    <t>¿Qué tipo de órgano debiera redactar la Nueva Constitución?</t>
+  </si>
+  <si>
+    <t>¿usted preferiría que la hiciera solo un grupo de personas elegidas especialmente para esto o un grupo que combinara parlamentarios y personas elegidas especialmente para esto?</t>
+  </si>
+  <si>
+    <t>¿CONVENCIÓN MIXTA O CONVENCIÓN CONSTITUCIONAL? (todos los votantes)</t>
+  </si>
+  <si>
+    <t>¿CONVENCIÓN MIXTA O CONVENCIÓN CONSTITUCIONAL? (entre los que dicen que votaran)</t>
+  </si>
+  <si>
+    <t>Y en ese mismo Plebiscito, para Ud., ¿qué tipo de órgano debiera redactar la Nueva Constitución?</t>
+  </si>
+  <si>
+    <t>Y, en ese mismo plebiscito, para Ud., ¿qué tipo de órgano debiera redactar la Nueva Constitución?</t>
   </si>
 </sst>
 </file>
@@ -214,7 +250,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:G62"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -236,6 +272,9 @@
       <c r="F1" t="s">
         <v>51</v>
       </c>
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -255,6 +294,9 @@
       </c>
       <c r="F2" s="1">
         <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -276,6 +318,9 @@
       <c r="F3" s="1">
         <v>24</v>
       </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -296,6 +341,9 @@
       <c r="F4" s="1">
         <v>33</v>
       </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -316,6 +364,9 @@
       <c r="F5" s="1">
         <v>27</v>
       </c>
+      <c r="G5" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -336,6 +387,9 @@
       <c r="F6" s="1">
         <v>32</v>
       </c>
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -356,6 +410,9 @@
       <c r="F7" s="1">
         <v>25</v>
       </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -376,6 +433,9 @@
       <c r="F8" s="1">
         <v>39</v>
       </c>
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -396,6 +456,9 @@
       <c r="F9" s="1">
         <v>24</v>
       </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -416,6 +479,9 @@
       <c r="F10" s="1">
         <v>24</v>
       </c>
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -436,6 +502,9 @@
       <c r="F11" s="1">
         <v>43</v>
       </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -456,6 +525,9 @@
       <c r="F12" s="1">
         <v>37</v>
       </c>
+      <c r="G12" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -476,6 +548,9 @@
       <c r="F13" s="1">
         <v>43</v>
       </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -496,6 +571,9 @@
       <c r="F14" s="1">
         <v>32</v>
       </c>
+      <c r="G14" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -516,6 +594,9 @@
       <c r="F15" s="1">
         <v>34</v>
       </c>
+      <c r="G15" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -536,6 +617,9 @@
       <c r="F16" s="1">
         <v>24</v>
       </c>
+      <c r="G16" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -556,6 +640,9 @@
       <c r="F17" s="1">
         <v>26</v>
       </c>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -576,6 +663,9 @@
       <c r="F18" s="1">
         <v>29</v>
       </c>
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -596,6 +686,9 @@
       <c r="F19" s="1">
         <v>45</v>
       </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -616,6 +709,9 @@
       <c r="F20" s="1">
         <v>35</v>
       </c>
+      <c r="G20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -636,6 +732,9 @@
       <c r="F21" s="1">
         <v>24</v>
       </c>
+      <c r="G21" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -656,6 +755,9 @@
       <c r="F22" s="1">
         <v>32</v>
       </c>
+      <c r="G22" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -676,6 +778,9 @@
       <c r="F23" s="1">
         <v>42</v>
       </c>
+      <c r="G23" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -696,6 +801,9 @@
       <c r="F24" s="1">
         <v>42</v>
       </c>
+      <c r="G24" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -716,6 +824,9 @@
       <c r="F25" s="1">
         <v>27</v>
       </c>
+      <c r="G25" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -736,6 +847,9 @@
       <c r="F26" s="1">
         <v>26</v>
       </c>
+      <c r="G26" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -756,6 +870,9 @@
       <c r="F27" s="1">
         <v>41</v>
       </c>
+      <c r="G27" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -776,6 +893,9 @@
       <c r="F28" s="1">
         <v>27</v>
       </c>
+      <c r="G28" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -796,6 +916,9 @@
       <c r="F29" s="1">
         <v>42</v>
       </c>
+      <c r="G29" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -816,6 +939,9 @@
       <c r="F30" s="1">
         <v>24</v>
       </c>
+      <c r="G30" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -836,6 +962,9 @@
       <c r="F31" s="1">
         <v>26</v>
       </c>
+      <c r="G31" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -856,6 +985,9 @@
       <c r="F32" s="1">
         <v>36</v>
       </c>
+      <c r="G32" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -876,6 +1008,9 @@
       <c r="F33" s="1">
         <v>33</v>
       </c>
+      <c r="G33" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -896,6 +1031,9 @@
       <c r="F34" s="1">
         <v>23</v>
       </c>
+      <c r="G34" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -916,6 +1054,9 @@
       <c r="F35" s="1">
         <v>27</v>
       </c>
+      <c r="G35" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -936,6 +1077,9 @@
       <c r="F36" s="1">
         <v>38</v>
       </c>
+      <c r="G36" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -956,6 +1100,9 @@
       <c r="F37" s="1">
         <v>24</v>
       </c>
+      <c r="G37" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -976,6 +1123,9 @@
       <c r="F38" s="1">
         <v>39</v>
       </c>
+      <c r="G38" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -996,6 +1146,9 @@
       <c r="F39" s="1">
         <v>27</v>
       </c>
+      <c r="G39" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -1016,6 +1169,9 @@
       <c r="F40" s="1">
         <v>28</v>
       </c>
+      <c r="G40" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -1036,6 +1192,9 @@
       <c r="F41" s="1">
         <v>30</v>
       </c>
+      <c r="G41" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -1056,6 +1215,9 @@
       <c r="F42" s="1">
         <v>32</v>
       </c>
+      <c r="G42" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -1076,6 +1238,9 @@
       <c r="F43" s="1">
         <v>24</v>
       </c>
+      <c r="G43" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -1096,6 +1261,9 @@
       <c r="F44" s="1">
         <v>28</v>
       </c>
+      <c r="G44" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -1116,6 +1284,9 @@
       <c r="F45" s="1">
         <v>42</v>
       </c>
+      <c r="G45" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
@@ -1136,6 +1307,9 @@
       <c r="F46" s="1">
         <v>27</v>
       </c>
+      <c r="G46" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
@@ -1156,6 +1330,9 @@
       <c r="F47" s="1">
         <v>30</v>
       </c>
+      <c r="G47" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
@@ -1176,6 +1353,9 @@
       <c r="F48" s="1">
         <v>31</v>
       </c>
+      <c r="G48" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -1196,6 +1376,9 @@
       <c r="F49" s="1">
         <v>35</v>
       </c>
+      <c r="G49" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
@@ -1216,6 +1399,9 @@
       <c r="F50" s="1">
         <v>27</v>
       </c>
+      <c r="G50" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -1236,6 +1422,9 @@
       <c r="F51" s="1">
         <v>29</v>
       </c>
+      <c r="G51" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -1256,6 +1445,9 @@
       <c r="F52" s="1">
         <v>28</v>
       </c>
+      <c r="G52" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
@@ -1276,6 +1468,9 @@
       <c r="F53" s="1">
         <v>35</v>
       </c>
+      <c r="G53" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
@@ -1296,6 +1491,9 @@
       <c r="F54" s="1">
         <v>27</v>
       </c>
+      <c r="G54" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -1316,6 +1514,9 @@
       <c r="F55" s="1">
         <v>32</v>
       </c>
+      <c r="G55" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -1336,6 +1537,9 @@
       <c r="F56" s="1">
         <v>27</v>
       </c>
+      <c r="G56" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
@@ -1356,6 +1560,9 @@
       <c r="F57" s="1">
         <v>29</v>
       </c>
+      <c r="G57" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
@@ -1376,6 +1583,9 @@
       <c r="F58" s="1">
         <v>32</v>
       </c>
+      <c r="G58" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
@@ -1396,6 +1606,9 @@
       <c r="F59" s="1">
         <v>33</v>
       </c>
+      <c r="G59" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
@@ -1416,6 +1629,9 @@
       <c r="F60" s="1">
         <v>26</v>
       </c>
+      <c r="G60" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
@@ -1436,6 +1652,9 @@
       <c r="F61" s="1">
         <v>32</v>
       </c>
+      <c r="G61" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
@@ -1456,6 +1675,9 @@
       <c r="F62" s="1">
         <v>26</v>
       </c>
+      <c r="G62" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/files/polls/CHL_2020-2.xlsx
+++ b/files/polls/CHL_2020-2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="67">
   <si>
     <t>Fecha</t>
   </si>
@@ -135,6 +135,9 @@
     <t>24/08/2020</t>
   </si>
   <si>
+    <t>29/08/2020</t>
+  </si>
+  <si>
     <t>Encuesta</t>
   </si>
   <si>
@@ -205,6 +208,12 @@
   </si>
   <si>
     <t>Y, en ese mismo plebiscito, para Ud., ¿qué tipo de órgano debiera redactar la Nueva Constitución?</t>
+  </si>
+  <si>
+    <t>Y pensando en el órgano que debe redactar esta nueva Constitución ¿Usted votará una Convención Mixta Constitucional o una Convención Constitucional?</t>
+  </si>
+  <si>
+    <t>Y pensando en el órgano que debe redactar esta nueva Constitución ¿Usted votará una Convención Mixta Constitucional o una Convención Constitucional? (votante probable)</t>
   </si>
 </sst>
 </file>
@@ -250,7 +259,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G64"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -258,22 +267,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">
@@ -281,7 +290,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1">
         <v>704</v>
@@ -296,7 +305,7 @@
         <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -304,7 +313,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1">
         <v>2000</v>
@@ -319,7 +328,7 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -327,7 +336,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1">
         <v>706</v>
@@ -342,7 +351,7 @@
         <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
@@ -350,7 +359,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1">
         <v>1159</v>
@@ -365,7 +374,7 @@
         <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -373,7 +382,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1">
         <v>1014</v>
@@ -388,7 +397,7 @@
         <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
@@ -396,7 +405,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1">
         <v>598</v>
@@ -411,7 +420,7 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
@@ -419,7 +428,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1">
         <v>1215</v>
@@ -434,7 +443,7 @@
         <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
@@ -442,7 +451,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1">
         <v>1030</v>
@@ -457,7 +466,7 @@
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -465,7 +474,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1">
         <v>500</v>
@@ -480,7 +489,7 @@
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
@@ -488,7 +497,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1">
         <v>709</v>
@@ -503,7 +512,7 @@
         <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
@@ -511,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1">
         <v>1496</v>
@@ -526,7 +535,7 @@
         <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -534,7 +543,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1">
         <v>707</v>
@@ -549,7 +558,7 @@
         <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
@@ -557,7 +566,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1">
         <v>1000</v>
@@ -572,7 +581,7 @@
         <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15">
@@ -580,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1">
         <v>780</v>
@@ -595,7 +604,7 @@
         <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16">
@@ -603,7 +612,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1">
         <v>950</v>
@@ -618,7 +627,7 @@
         <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
@@ -626,7 +635,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1">
         <v>487</v>
@@ -641,7 +650,7 @@
         <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18">
@@ -649,7 +658,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1">
         <v>1033</v>
@@ -664,7 +673,7 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
@@ -672,7 +681,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1">
         <v>709</v>
@@ -687,7 +696,7 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
@@ -695,7 +704,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1">
         <v>806</v>
@@ -710,7 +719,7 @@
         <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21">
@@ -718,7 +727,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="1">
         <v>975</v>
@@ -733,7 +742,7 @@
         <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -741,7 +750,7 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1">
         <v>477</v>
@@ -756,7 +765,7 @@
         <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23">
@@ -764,7 +773,7 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1">
         <v>708</v>
@@ -779,7 +788,7 @@
         <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24">
@@ -787,7 +796,7 @@
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="1">
         <v>709</v>
@@ -802,7 +811,7 @@
         <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25">
@@ -810,7 +819,7 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" s="1">
         <v>1045</v>
@@ -825,7 +834,7 @@
         <v>27</v>
       </c>
       <c r="G25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
@@ -833,7 +842,7 @@
         <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" s="1">
         <v>525</v>
@@ -848,7 +857,7 @@
         <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27">
@@ -856,7 +865,7 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="1">
         <v>705</v>
@@ -871,7 +880,7 @@
         <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
@@ -879,7 +888,7 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" s="1">
         <v>1445</v>
@@ -894,7 +903,7 @@
         <v>27</v>
       </c>
       <c r="G28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29">
@@ -902,7 +911,7 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" s="1">
         <v>705</v>
@@ -917,7 +926,7 @@
         <v>42</v>
       </c>
       <c r="G29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
@@ -925,7 +934,7 @@
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30" s="1">
         <v>1043</v>
@@ -940,7 +949,7 @@
         <v>24</v>
       </c>
       <c r="G30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31">
@@ -948,7 +957,7 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" s="1">
         <v>583</v>
@@ -963,7 +972,7 @@
         <v>26</v>
       </c>
       <c r="G31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -971,7 +980,7 @@
         <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" s="1">
         <v>702</v>
@@ -986,7 +995,7 @@
         <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33">
@@ -994,7 +1003,7 @@
         <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" s="1">
         <v>707</v>
@@ -1009,7 +1018,7 @@
         <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34">
@@ -1017,7 +1026,7 @@
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34" s="1">
         <v>1135</v>
@@ -1032,7 +1041,7 @@
         <v>23</v>
       </c>
       <c r="G34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35">
@@ -1040,7 +1049,7 @@
         <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" s="1">
         <v>690</v>
@@ -1055,7 +1064,7 @@
         <v>27</v>
       </c>
       <c r="G35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36">
@@ -1063,7 +1072,7 @@
         <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C36" s="1">
         <v>702</v>
@@ -1078,7 +1087,7 @@
         <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37">
@@ -1086,7 +1095,7 @@
         <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C37" s="1">
         <v>1273</v>
@@ -1101,7 +1110,7 @@
         <v>24</v>
       </c>
       <c r="G37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38">
@@ -1109,7 +1118,7 @@
         <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C38" s="1">
         <v>702</v>
@@ -1124,7 +1133,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39">
@@ -1132,7 +1141,7 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C39" s="1">
         <v>1230</v>
@@ -1147,7 +1156,7 @@
         <v>27</v>
       </c>
       <c r="G39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40">
@@ -1155,7 +1164,7 @@
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C40" s="1">
         <v>690</v>
@@ -1170,7 +1179,7 @@
         <v>28</v>
       </c>
       <c r="G40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41">
@@ -1178,7 +1187,7 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41" s="1">
         <v>1270</v>
@@ -1193,7 +1202,7 @@
         <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42">
@@ -1201,7 +1210,7 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C42" s="1">
         <v>725</v>
@@ -1216,7 +1225,7 @@
         <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43">
@@ -1224,7 +1233,7 @@
         <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C43" s="1">
         <v>1227</v>
@@ -1239,7 +1248,7 @@
         <v>24</v>
       </c>
       <c r="G43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44">
@@ -1247,7 +1256,7 @@
         <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C44" s="1">
         <v>736</v>
@@ -1262,7 +1271,7 @@
         <v>28</v>
       </c>
       <c r="G44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45">
@@ -1270,7 +1279,7 @@
         <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C45" s="1">
         <v>712</v>
@@ -1285,7 +1294,7 @@
         <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46">
@@ -1293,7 +1302,7 @@
         <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C46" s="1">
         <v>1209</v>
@@ -1308,7 +1317,7 @@
         <v>27</v>
       </c>
       <c r="G46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47">
@@ -1316,7 +1325,7 @@
         <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C47" s="1">
         <v>724</v>
@@ -1331,7 +1340,7 @@
         <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48">
@@ -1339,7 +1348,7 @@
         <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C48" s="1">
         <v>1215</v>
@@ -1354,7 +1363,7 @@
         <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49">
@@ -1362,7 +1371,7 @@
         <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C49" s="1">
         <v>661</v>
@@ -1377,7 +1386,7 @@
         <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50">
@@ -1385,7 +1394,7 @@
         <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C50" s="1">
         <v>1340</v>
@@ -1400,7 +1409,7 @@
         <v>27</v>
       </c>
       <c r="G50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51">
@@ -1408,7 +1417,7 @@
         <v>34</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C51" s="1">
         <v>747</v>
@@ -1423,7 +1432,7 @@
         <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52">
@@ -1431,7 +1440,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C52" s="1">
         <v>1730</v>
@@ -1446,7 +1455,7 @@
         <v>28</v>
       </c>
       <c r="G52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53">
@@ -1454,7 +1463,7 @@
         <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C53" s="1">
         <v>960</v>
@@ -1469,7 +1478,7 @@
         <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54">
@@ -1477,7 +1486,7 @@
         <v>36</v>
       </c>
       <c r="B54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C54" s="1">
         <v>1260</v>
@@ -1492,7 +1501,7 @@
         <v>27</v>
       </c>
       <c r="G54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55">
@@ -1500,7 +1509,7 @@
         <v>36</v>
       </c>
       <c r="B55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C55" s="1">
         <v>670</v>
@@ -1515,7 +1524,7 @@
         <v>32</v>
       </c>
       <c r="G55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56">
@@ -1523,7 +1532,7 @@
         <v>34</v>
       </c>
       <c r="B56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C56" s="1">
         <v>1340</v>
@@ -1538,7 +1547,7 @@
         <v>27</v>
       </c>
       <c r="G56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57">
@@ -1546,7 +1555,7 @@
         <v>34</v>
       </c>
       <c r="B57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C57" s="1">
         <v>747</v>
@@ -1561,7 +1570,7 @@
         <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58">
@@ -1569,7 +1578,7 @@
         <v>37</v>
       </c>
       <c r="B58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C58" s="1">
         <v>1430</v>
@@ -1584,7 +1593,7 @@
         <v>32</v>
       </c>
       <c r="G58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59">
@@ -1592,7 +1601,7 @@
         <v>37</v>
       </c>
       <c r="B59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C59" s="1">
         <v>797</v>
@@ -1607,7 +1616,7 @@
         <v>33</v>
       </c>
       <c r="G59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60">
@@ -1615,7 +1624,7 @@
         <v>38</v>
       </c>
       <c r="B60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C60" s="1">
         <v>1434</v>
@@ -1630,7 +1639,7 @@
         <v>26</v>
       </c>
       <c r="G60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61">
@@ -1638,7 +1647,7 @@
         <v>38</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C61" s="1">
         <v>1434</v>
@@ -1653,7 +1662,7 @@
         <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62">
@@ -1661,7 +1670,7 @@
         <v>39</v>
       </c>
       <c r="B62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C62" s="1">
         <v>1940</v>
@@ -1676,7 +1685,53 @@
         <v>26</v>
       </c>
       <c r="G62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1544</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>47</v>
+      </c>
+      <c r="F63" s="1">
+        <v>28</v>
+      </c>
+      <c r="G63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64" s="1">
+        <v>920</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1">
         <v>63</v>
+      </c>
+      <c r="F64" s="1">
+        <v>34</v>
+      </c>
+      <c r="G64" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/files/polls/CHL_2020-2.xlsx
+++ b/files/polls/CHL_2020-2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="69">
   <si>
     <t>Fecha</t>
   </si>
@@ -138,6 +138,9 @@
     <t>29/08/2020</t>
   </si>
   <si>
+    <t>31/08/2020</t>
+  </si>
+  <si>
     <t>Encuesta</t>
   </si>
   <si>
@@ -214,6 +217,9 @@
   </si>
   <si>
     <t>Y pensando en el órgano que debe redactar esta nueva Constitución ¿Usted votará una Convención Mixta Constitucional o una Convención Constitucional? (votante probable)</t>
+  </si>
+  <si>
+    <t>Si el plebiscito por una nueva Constitución fuese el próximo domingo, ¿Por qué tipo de órgano votarías para redactar la nueva Constitución?</t>
   </si>
 </sst>
 </file>
@@ -259,7 +265,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G65"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -267,22 +273,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2">
@@ -290,7 +296,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1">
         <v>704</v>
@@ -305,7 +311,7 @@
         <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -313,7 +319,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1">
         <v>2000</v>
@@ -328,7 +334,7 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -336,7 +342,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1">
         <v>706</v>
@@ -351,7 +357,7 @@
         <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
@@ -359,7 +365,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1">
         <v>1159</v>
@@ -374,7 +380,7 @@
         <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -382,7 +388,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1">
         <v>1014</v>
@@ -397,7 +403,7 @@
         <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
@@ -405,7 +411,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1">
         <v>598</v>
@@ -420,7 +426,7 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -428,7 +434,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1">
         <v>1215</v>
@@ -443,7 +449,7 @@
         <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
@@ -451,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1">
         <v>1030</v>
@@ -466,7 +472,7 @@
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +480,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1">
         <v>500</v>
@@ -489,7 +495,7 @@
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
@@ -497,7 +503,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1">
         <v>709</v>
@@ -512,7 +518,7 @@
         <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -520,7 +526,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1">
         <v>1496</v>
@@ -535,7 +541,7 @@
         <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
@@ -543,7 +549,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1">
         <v>707</v>
@@ -558,7 +564,7 @@
         <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
@@ -566,7 +572,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1">
         <v>1000</v>
@@ -581,7 +587,7 @@
         <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
@@ -589,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1">
         <v>780</v>
@@ -604,7 +610,7 @@
         <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +618,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1">
         <v>950</v>
@@ -627,7 +633,7 @@
         <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
@@ -635,7 +641,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1">
         <v>487</v>
@@ -650,7 +656,7 @@
         <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
@@ -658,7 +664,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1">
         <v>1033</v>
@@ -673,7 +679,7 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
@@ -681,7 +687,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1">
         <v>709</v>
@@ -696,7 +702,7 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -704,7 +710,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1">
         <v>806</v>
@@ -719,7 +725,7 @@
         <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
@@ -727,7 +733,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1">
         <v>975</v>
@@ -742,7 +748,7 @@
         <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22">
@@ -750,7 +756,7 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1">
         <v>477</v>
@@ -765,7 +771,7 @@
         <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23">
@@ -773,7 +779,7 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" s="1">
         <v>708</v>
@@ -788,7 +794,7 @@
         <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
@@ -796,7 +802,7 @@
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1">
         <v>709</v>
@@ -811,7 +817,7 @@
         <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
@@ -819,7 +825,7 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" s="1">
         <v>1045</v>
@@ -834,7 +840,7 @@
         <v>27</v>
       </c>
       <c r="G25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26">
@@ -842,7 +848,7 @@
         <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1">
         <v>525</v>
@@ -857,7 +863,7 @@
         <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27">
@@ -865,7 +871,7 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" s="1">
         <v>705</v>
@@ -880,7 +886,7 @@
         <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28">
@@ -888,7 +894,7 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C28" s="1">
         <v>1445</v>
@@ -903,7 +909,7 @@
         <v>27</v>
       </c>
       <c r="G28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29">
@@ -911,7 +917,7 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" s="1">
         <v>705</v>
@@ -926,7 +932,7 @@
         <v>42</v>
       </c>
       <c r="G29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30">
@@ -934,7 +940,7 @@
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30" s="1">
         <v>1043</v>
@@ -949,7 +955,7 @@
         <v>24</v>
       </c>
       <c r="G30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31">
@@ -957,7 +963,7 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31" s="1">
         <v>583</v>
@@ -972,7 +978,7 @@
         <v>26</v>
       </c>
       <c r="G31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32">
@@ -980,7 +986,7 @@
         <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" s="1">
         <v>702</v>
@@ -995,7 +1001,7 @@
         <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33">
@@ -1003,7 +1009,7 @@
         <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" s="1">
         <v>707</v>
@@ -1018,7 +1024,7 @@
         <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34">
@@ -1026,7 +1032,7 @@
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34" s="1">
         <v>1135</v>
@@ -1041,7 +1047,7 @@
         <v>23</v>
       </c>
       <c r="G34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35">
@@ -1049,7 +1055,7 @@
         <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C35" s="1">
         <v>690</v>
@@ -1064,7 +1070,7 @@
         <v>27</v>
       </c>
       <c r="G35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36">
@@ -1072,7 +1078,7 @@
         <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C36" s="1">
         <v>702</v>
@@ -1087,7 +1093,7 @@
         <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37">
@@ -1095,7 +1101,7 @@
         <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37" s="1">
         <v>1273</v>
@@ -1110,7 +1116,7 @@
         <v>24</v>
       </c>
       <c r="G37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38">
@@ -1118,7 +1124,7 @@
         <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C38" s="1">
         <v>702</v>
@@ -1133,7 +1139,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
@@ -1141,7 +1147,7 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" s="1">
         <v>1230</v>
@@ -1156,7 +1162,7 @@
         <v>27</v>
       </c>
       <c r="G39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40">
@@ -1164,7 +1170,7 @@
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" s="1">
         <v>690</v>
@@ -1179,7 +1185,7 @@
         <v>28</v>
       </c>
       <c r="G40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41">
@@ -1187,7 +1193,7 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C41" s="1">
         <v>1270</v>
@@ -1202,7 +1208,7 @@
         <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42">
@@ -1210,7 +1216,7 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42" s="1">
         <v>725</v>
@@ -1225,7 +1231,7 @@
         <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43">
@@ -1233,7 +1239,7 @@
         <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C43" s="1">
         <v>1227</v>
@@ -1248,7 +1254,7 @@
         <v>24</v>
       </c>
       <c r="G43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44">
@@ -1256,7 +1262,7 @@
         <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C44" s="1">
         <v>736</v>
@@ -1271,7 +1277,7 @@
         <v>28</v>
       </c>
       <c r="G44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45">
@@ -1279,7 +1285,7 @@
         <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C45" s="1">
         <v>712</v>
@@ -1294,7 +1300,7 @@
         <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46">
@@ -1302,7 +1308,7 @@
         <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C46" s="1">
         <v>1209</v>
@@ -1317,7 +1323,7 @@
         <v>27</v>
       </c>
       <c r="G46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47">
@@ -1325,7 +1331,7 @@
         <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C47" s="1">
         <v>724</v>
@@ -1340,7 +1346,7 @@
         <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48">
@@ -1348,7 +1354,7 @@
         <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C48" s="1">
         <v>1215</v>
@@ -1363,7 +1369,7 @@
         <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49">
@@ -1371,7 +1377,7 @@
         <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C49" s="1">
         <v>661</v>
@@ -1386,7 +1392,7 @@
         <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50">
@@ -1394,7 +1400,7 @@
         <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C50" s="1">
         <v>1340</v>
@@ -1409,7 +1415,7 @@
         <v>27</v>
       </c>
       <c r="G50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51">
@@ -1417,7 +1423,7 @@
         <v>34</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C51" s="1">
         <v>747</v>
@@ -1432,7 +1438,7 @@
         <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52">
@@ -1440,7 +1446,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C52" s="1">
         <v>1730</v>
@@ -1455,7 +1461,7 @@
         <v>28</v>
       </c>
       <c r="G52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53">
@@ -1463,7 +1469,7 @@
         <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C53" s="1">
         <v>960</v>
@@ -1478,7 +1484,7 @@
         <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54">
@@ -1486,7 +1492,7 @@
         <v>36</v>
       </c>
       <c r="B54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C54" s="1">
         <v>1260</v>
@@ -1501,7 +1507,7 @@
         <v>27</v>
       </c>
       <c r="G54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55">
@@ -1509,7 +1515,7 @@
         <v>36</v>
       </c>
       <c r="B55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C55" s="1">
         <v>670</v>
@@ -1524,7 +1530,7 @@
         <v>32</v>
       </c>
       <c r="G55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56">
@@ -1532,7 +1538,7 @@
         <v>34</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C56" s="1">
         <v>1340</v>
@@ -1547,7 +1553,7 @@
         <v>27</v>
       </c>
       <c r="G56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57">
@@ -1555,7 +1561,7 @@
         <v>34</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C57" s="1">
         <v>747</v>
@@ -1570,7 +1576,7 @@
         <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58">
@@ -1578,7 +1584,7 @@
         <v>37</v>
       </c>
       <c r="B58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C58" s="1">
         <v>1430</v>
@@ -1593,7 +1599,7 @@
         <v>32</v>
       </c>
       <c r="G58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59">
@@ -1601,7 +1607,7 @@
         <v>37</v>
       </c>
       <c r="B59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C59" s="1">
         <v>797</v>
@@ -1616,7 +1622,7 @@
         <v>33</v>
       </c>
       <c r="G59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60">
@@ -1624,7 +1630,7 @@
         <v>38</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C60" s="1">
         <v>1434</v>
@@ -1639,7 +1645,7 @@
         <v>26</v>
       </c>
       <c r="G60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61">
@@ -1647,10 +1653,10 @@
         <v>38</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C61" s="1">
-        <v>1434</v>
+        <v>857</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
@@ -1662,7 +1668,7 @@
         <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62">
@@ -1670,7 +1676,7 @@
         <v>39</v>
       </c>
       <c r="B62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C62" s="1">
         <v>1940</v>
@@ -1685,7 +1691,7 @@
         <v>26</v>
       </c>
       <c r="G62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63">
@@ -1693,7 +1699,7 @@
         <v>40</v>
       </c>
       <c r="B63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C63" s="1">
         <v>1544</v>
@@ -1708,7 +1714,7 @@
         <v>28</v>
       </c>
       <c r="G63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64">
@@ -1716,7 +1722,7 @@
         <v>40</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C64" s="1">
         <v>920</v>
@@ -1731,7 +1737,30 @@
         <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65" t="s">
+        <v>45</v>
+      </c>
+      <c r="C65" s="1">
+        <v>986</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1">
+        <v>59</v>
+      </c>
+      <c r="F65" s="1">
+        <v>29</v>
+      </c>
+      <c r="G65" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/files/polls/CHL_2020-2.xlsx
+++ b/files/polls/CHL_2020-2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="67">
   <si>
     <t>Fecha</t>
   </si>
@@ -204,9 +204,6 @@
     <t>¿CONVENCIÓN MIXTA O CONVENCIÓN CONSTITUCIONAL? (todos los votantes)</t>
   </si>
   <si>
-    <t>¿CONVENCIÓN MIXTA O CONVENCIÓN CONSTITUCIONAL? (entre los que dicen que votaran)</t>
-  </si>
-  <si>
     <t>Y en ese mismo Plebiscito, para Ud., ¿qué tipo de órgano debiera redactar la Nueva Constitución?</t>
   </si>
   <si>
@@ -214,9 +211,6 @@
   </si>
   <si>
     <t>Y pensando en el órgano que debe redactar esta nueva Constitución ¿Usted votará una Convención Mixta Constitucional o una Convención Constitucional?</t>
-  </si>
-  <si>
-    <t>Y pensando en el órgano que debe redactar esta nueva Constitución ¿Usted votará una Convención Mixta Constitucional o una Convención Constitucional? (votante probable)</t>
   </si>
   <si>
     <t>Si el plebiscito por una nueva Constitución fuese el próximo domingo, ¿Por qué tipo de órgano votarías para redactar la nueva Constitución?</t>
@@ -265,7 +259,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G45"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -408,111 +402,111 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1">
-        <v>598</v>
+        <v>1215</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1">
-        <v>1215</v>
+        <v>1030</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F8" s="1">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1">
-        <v>1030</v>
+        <v>709</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F9" s="1">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1">
-        <v>500</v>
+        <v>1496</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="F10" s="1">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
       </c>
       <c r="C11" s="1">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F11" s="1">
         <v>43</v>
@@ -523,160 +517,160 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1">
-        <v>1496</v>
+        <v>1000</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1">
-        <v>707</v>
+        <v>950</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F13" s="1">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1">
-        <v>1000</v>
+        <v>1033</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="F14" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1">
-        <v>780</v>
+        <v>709</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
         <v>47</v>
       </c>
       <c r="F15" s="1">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1">
-        <v>950</v>
+        <v>806</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F16" s="1">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="1">
-        <v>487</v>
+        <v>975</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F17" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1">
-        <v>1033</v>
+        <v>708</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F18" s="1">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
         <v>60</v>
@@ -684,7 +678,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
@@ -696,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F19" s="1">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
         <v>60</v>
@@ -707,36 +701,36 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1">
-        <v>806</v>
+        <v>1045</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F20" s="1">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="1">
-        <v>975</v>
+        <v>705</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -745,44 +739,44 @@
         <v>50</v>
       </c>
       <c r="F21" s="1">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1">
-        <v>477</v>
+        <v>1445</v>
       </c>
       <c r="D22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F22" s="1">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="1">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -799,13 +793,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1">
-        <v>709</v>
+        <v>1043</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -814,99 +808,99 @@
         <v>51</v>
       </c>
       <c r="F24" s="1">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="G24" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="1">
-        <v>1045</v>
+        <v>702</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F25" s="1">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="1">
-        <v>525</v>
+        <v>707</v>
       </c>
       <c r="D26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1">
         <v>58</v>
       </c>
       <c r="F26" s="1">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1">
-        <v>705</v>
+        <v>1135</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F27" s="1">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="G27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C28" s="1">
-        <v>1445</v>
+        <v>702</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F28" s="1">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
         <v>60</v>
@@ -914,36 +908,36 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C29" s="1">
-        <v>705</v>
+        <v>1273</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F29" s="1">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="G29" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="1">
-        <v>1043</v>
+        <v>702</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -952,211 +946,211 @@
         <v>51</v>
       </c>
       <c r="F30" s="1">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="1">
-        <v>583</v>
+        <v>1230</v>
       </c>
       <c r="D31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F31" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32" s="1">
-        <v>702</v>
+        <v>1270</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F32" s="1">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C33" s="1">
-        <v>707</v>
+        <v>1227</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F33" s="1">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G33" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="1">
-        <v>1135</v>
+        <v>712</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F34" s="1">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="1">
-        <v>690</v>
+        <v>1209</v>
       </c>
       <c r="D35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F35" s="1">
         <v>27</v>
       </c>
       <c r="G35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C36" s="1">
-        <v>702</v>
+        <v>1215</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F36" s="1">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1340</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
         <v>49</v>
       </c>
-      <c r="C37" s="1">
-        <v>1273</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1">
-        <v>65</v>
-      </c>
       <c r="F37" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G37" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38" s="1">
-        <v>702</v>
+        <v>1730</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F38" s="1">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G38" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
         <v>44</v>
       </c>
       <c r="C39" s="1">
-        <v>1230</v>
+        <v>1260</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F39" s="1">
         <v>27</v>
@@ -1167,45 +1161,45 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
         <v>44</v>
       </c>
       <c r="C40" s="1">
-        <v>690</v>
+        <v>1340</v>
       </c>
       <c r="D40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F40" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
         <v>44</v>
       </c>
       <c r="C41" s="1">
-        <v>1270</v>
+        <v>1430</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F41" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
         <v>56</v>
@@ -1213,554 +1207,94 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
         <v>44</v>
       </c>
       <c r="C42" s="1">
-        <v>725</v>
+        <v>1434</v>
       </c>
       <c r="D42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F42" s="1">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C43" s="1">
-        <v>1227</v>
+        <v>1940</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F43" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G43" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
       </c>
       <c r="C44" s="1">
-        <v>736</v>
+        <v>1544</v>
       </c>
       <c r="D44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F44" s="1">
         <v>28</v>
       </c>
       <c r="G44" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C45" s="1">
-        <v>712</v>
+        <v>986</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F45" s="1">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1209</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1">
-        <v>51</v>
-      </c>
-      <c r="F46" s="1">
-        <v>27</v>
-      </c>
-      <c r="G46" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>32</v>
-      </c>
-      <c r="B47" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="1">
-        <v>724</v>
-      </c>
-      <c r="D47" s="1">
-        <v>1</v>
-      </c>
-      <c r="E47" s="1">
-        <v>67</v>
-      </c>
-      <c r="F47" s="1">
-        <v>30</v>
-      </c>
-      <c r="G47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>33</v>
-      </c>
-      <c r="B48" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1215</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0</v>
-      </c>
-      <c r="E48" s="1">
-        <v>45</v>
-      </c>
-      <c r="F48" s="1">
-        <v>31</v>
-      </c>
-      <c r="G48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>33</v>
-      </c>
-      <c r="B49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="1">
-        <v>661</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1</v>
-      </c>
-      <c r="E49" s="1">
-        <v>62</v>
-      </c>
-      <c r="F49" s="1">
-        <v>35</v>
-      </c>
-      <c r="G49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="1">
-        <v>1340</v>
-      </c>
-      <c r="D50" s="1">
-        <v>0</v>
-      </c>
-      <c r="E50" s="1">
-        <v>49</v>
-      </c>
-      <c r="F50" s="1">
-        <v>27</v>
-      </c>
-      <c r="G50" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C51" s="1">
-        <v>747</v>
-      </c>
-      <c r="D51" s="1">
-        <v>1</v>
-      </c>
-      <c r="E51" s="1">
         <v>66</v>
-      </c>
-      <c r="F51" s="1">
-        <v>29</v>
-      </c>
-      <c r="G51" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>35</v>
-      </c>
-      <c r="B52" t="s">
-        <v>44</v>
-      </c>
-      <c r="C52" s="1">
-        <v>1730</v>
-      </c>
-      <c r="D52" s="1">
-        <v>0</v>
-      </c>
-      <c r="E52" s="1">
-        <v>50</v>
-      </c>
-      <c r="F52" s="1">
-        <v>28</v>
-      </c>
-      <c r="G52" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>35</v>
-      </c>
-      <c r="B53" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="1">
-        <v>960</v>
-      </c>
-      <c r="D53" s="1">
-        <v>1</v>
-      </c>
-      <c r="E53" s="1">
-        <v>63</v>
-      </c>
-      <c r="F53" s="1">
-        <v>35</v>
-      </c>
-      <c r="G53" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" s="1">
-        <v>1260</v>
-      </c>
-      <c r="D54" s="1">
-        <v>0</v>
-      </c>
-      <c r="E54" s="1">
-        <v>47</v>
-      </c>
-      <c r="F54" s="1">
-        <v>27</v>
-      </c>
-      <c r="G54" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>36</v>
-      </c>
-      <c r="B55" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" s="1">
-        <v>670</v>
-      </c>
-      <c r="D55" s="1">
-        <v>1</v>
-      </c>
-      <c r="E55" s="1">
-        <v>67</v>
-      </c>
-      <c r="F55" s="1">
-        <v>32</v>
-      </c>
-      <c r="G55" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56" s="1">
-        <v>1340</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0</v>
-      </c>
-      <c r="E56" s="1">
-        <v>48</v>
-      </c>
-      <c r="F56" s="1">
-        <v>27</v>
-      </c>
-      <c r="G56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>34</v>
-      </c>
-      <c r="B57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" s="1">
-        <v>747</v>
-      </c>
-      <c r="D57" s="1">
-        <v>1</v>
-      </c>
-      <c r="E57" s="1">
-        <v>66</v>
-      </c>
-      <c r="F57" s="1">
-        <v>29</v>
-      </c>
-      <c r="G57" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>37</v>
-      </c>
-      <c r="B58" t="s">
-        <v>44</v>
-      </c>
-      <c r="C58" s="1">
-        <v>1430</v>
-      </c>
-      <c r="D58" s="1">
-        <v>0</v>
-      </c>
-      <c r="E58" s="1">
-        <v>49</v>
-      </c>
-      <c r="F58" s="1">
-        <v>32</v>
-      </c>
-      <c r="G58" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>37</v>
-      </c>
-      <c r="B59" t="s">
-        <v>44</v>
-      </c>
-      <c r="C59" s="1">
-        <v>797</v>
-      </c>
-      <c r="D59" s="1">
-        <v>1</v>
-      </c>
-      <c r="E59" s="1">
-        <v>63</v>
-      </c>
-      <c r="F59" s="1">
-        <v>33</v>
-      </c>
-      <c r="G59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>38</v>
-      </c>
-      <c r="B60" t="s">
-        <v>44</v>
-      </c>
-      <c r="C60" s="1">
-        <v>1434</v>
-      </c>
-      <c r="D60" s="1">
-        <v>0</v>
-      </c>
-      <c r="E60" s="1">
-        <v>49</v>
-      </c>
-      <c r="F60" s="1">
-        <v>26</v>
-      </c>
-      <c r="G60" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>38</v>
-      </c>
-      <c r="B61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C61" s="1">
-        <v>857</v>
-      </c>
-      <c r="D61" s="1">
-        <v>1</v>
-      </c>
-      <c r="E61" s="1">
-        <v>65</v>
-      </c>
-      <c r="F61" s="1">
-        <v>32</v>
-      </c>
-      <c r="G61" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>39</v>
-      </c>
-      <c r="B62" t="s">
-        <v>49</v>
-      </c>
-      <c r="C62" s="1">
-        <v>1940</v>
-      </c>
-      <c r="D62" s="1">
-        <v>0</v>
-      </c>
-      <c r="E62" s="1">
-        <v>55</v>
-      </c>
-      <c r="F62" s="1">
-        <v>26</v>
-      </c>
-      <c r="G62" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>40</v>
-      </c>
-      <c r="B63" t="s">
-        <v>44</v>
-      </c>
-      <c r="C63" s="1">
-        <v>1544</v>
-      </c>
-      <c r="D63" s="1">
-        <v>0</v>
-      </c>
-      <c r="E63" s="1">
-        <v>47</v>
-      </c>
-      <c r="F63" s="1">
-        <v>28</v>
-      </c>
-      <c r="G63" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>40</v>
-      </c>
-      <c r="B64" t="s">
-        <v>44</v>
-      </c>
-      <c r="C64" s="1">
-        <v>920</v>
-      </c>
-      <c r="D64" s="1">
-        <v>1</v>
-      </c>
-      <c r="E64" s="1">
-        <v>63</v>
-      </c>
-      <c r="F64" s="1">
-        <v>34</v>
-      </c>
-      <c r="G64" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>41</v>
-      </c>
-      <c r="B65" t="s">
-        <v>45</v>
-      </c>
-      <c r="C65" s="1">
-        <v>986</v>
-      </c>
-      <c r="D65" s="1">
-        <v>0</v>
-      </c>
-      <c r="E65" s="1">
-        <v>59</v>
-      </c>
-      <c r="F65" s="1">
-        <v>29</v>
-      </c>
-      <c r="G65" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
